--- a/data/trans_dic/P16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Edad-trans_dic.xlsx
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00384192280052232</v>
+        <v>0.004131691563149666</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004599269101169368</v>
+        <v>0.004618983989573932</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00251896416912826</v>
+        <v>0.00251960556280102</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01265226077422828</v>
+        <v>0.0122070390218651</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001993870337783721</v>
+        <v>0.001135438886577603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003266909731710445</v>
+        <v>0.003225803248520061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001214358698206682</v>
+        <v>0.001229261614004613</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01060894408630674</v>
+        <v>0.01087935317112891</v>
       </c>
     </row>
     <row r="6">
@@ -749,35 +749,35 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.009059011960445756</v>
+        <v>0.01035752560056092</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.04775610874553093</v>
+        <v>0.04100545398526275</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02397401380734633</v>
+        <v>0.02388973860980875</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0276317943798474</v>
+        <v>0.02772307001538099</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02964468129496445</v>
+        <v>0.02744495534764093</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08210926764684105</v>
+        <v>0.07721230758022196</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01169907595596135</v>
+        <v>0.01126418690824204</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01541294533557973</v>
+        <v>0.01549372173428642</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01472881157481573</v>
+        <v>0.01423817361848194</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04982934951534237</v>
+        <v>0.0438809802625922</v>
       </c>
     </row>
     <row r="7">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002591404331707048</v>
+        <v>0.002577442721430563</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003793357985199882</v>
+        <v>0.003791392820670763</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002835897398698068</v>
+        <v>0.002889108003038923</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004596303641791695</v>
+        <v>0.004746592436569321</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002655465772630244</v>
+        <v>0.002664466819011659</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00495878947263103</v>
+        <v>0.0049409787370002</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005781837227856226</v>
+        <v>0.006107359567682213</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004897711728757627</v>
+        <v>0.005091664831165812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004400315834895991</v>
+        <v>0.004697365052674463</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004026983520180244</v>
+        <v>0.003981321207165261</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.00642183544268672</v>
+        <v>0.006661004904417736</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01514685036024116</v>
+        <v>0.01575895206293046</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02443446314519458</v>
+        <v>0.02464305269330207</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01178245527160856</v>
+        <v>0.01152041851921833</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02734086718643495</v>
+        <v>0.02758677164709434</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02311524628415427</v>
+        <v>0.0241805714506085</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02249220023022985</v>
+        <v>0.02314335838567525</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02332720934556906</v>
+        <v>0.02298586074115757</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02928756730174493</v>
+        <v>0.03305884320901819</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01550896660366063</v>
+        <v>0.01641962283500146</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0180215572627629</v>
+        <v>0.01806205529129171</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01333354750339993</v>
+        <v>0.01315757480370694</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02403611399235763</v>
+        <v>0.02402162552313222</v>
       </c>
     </row>
     <row r="10">
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006683002462173043</v>
+        <v>0.006745119035632805</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01184773363248776</v>
+        <v>0.01126950989698789</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002798167236666765</v>
+        <v>0.002815999424621075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01358466871211697</v>
+        <v>0.01296119222358921</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01258646179678058</v>
+        <v>0.01359568799482081</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03163725066057022</v>
+        <v>0.02933347423710824</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01311411103646173</v>
+        <v>0.01299552602213882</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02699181569746738</v>
+        <v>0.02910481917992187</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01191085933729548</v>
+        <v>0.01199107939078436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02534880777386491</v>
+        <v>0.0257168361972005</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009767958585011539</v>
+        <v>0.009804883442513693</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02377672977873811</v>
+        <v>0.0246660112248948</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02520910063463066</v>
+        <v>0.02508114512446223</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04001472811897653</v>
+        <v>0.03995752959839192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01954037910876219</v>
+        <v>0.01901058380666309</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04408324236290317</v>
+        <v>0.04382187590810166</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03647268916524073</v>
+        <v>0.03768724046898396</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06398170370173051</v>
+        <v>0.06110570216337993</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03565245815927047</v>
+        <v>0.03614269253662672</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05469782960147414</v>
+        <v>0.05398024198920191</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0268725448391881</v>
+        <v>0.02707539059922364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04530185513912274</v>
+        <v>0.04512690805423342</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02318855927321718</v>
+        <v>0.0233060054626779</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04515659377472211</v>
+        <v>0.04445168684227047</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0.02907287031795421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04736503981473025</v>
+        <v>0.04736503981473024</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04058550934429433</v>
@@ -1085,7 +1085,7 @@
         <v>0.06998010904934489</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07622061297828361</v>
+        <v>0.0762206129782836</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02934031739549061</v>
@@ -1097,7 +1097,7 @@
         <v>0.04957432032207578</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06214991539777134</v>
+        <v>0.06214991539777136</v>
       </c>
     </row>
     <row r="14">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008182524345063039</v>
+        <v>0.008116840285157583</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01320321572320808</v>
+        <v>0.01181810903898364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01746842741286581</v>
+        <v>0.01738774926467669</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03270580245244144</v>
+        <v>0.03277528056672056</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02495945919300813</v>
+        <v>0.0256287312281683</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03770354392439074</v>
+        <v>0.03784584672954225</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05206381830119825</v>
+        <v>0.05226074480832302</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0604417338558298</v>
+        <v>0.06171801732307228</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02020829492538853</v>
+        <v>0.02035826697647857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02882189610103279</v>
+        <v>0.02902405504782126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03841931401431094</v>
+        <v>0.03892015612363596</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05221715096768509</v>
+        <v>0.05237194260351483</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03430959564055401</v>
+        <v>0.03556301730957687</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04220332227536621</v>
+        <v>0.04281555388543971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0467723598374277</v>
+        <v>0.04728193595815692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0660885193650307</v>
+        <v>0.06787876475051659</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05947518673574654</v>
+        <v>0.05972198812827852</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07412055438629994</v>
+        <v>0.07976836844024253</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09169315882706201</v>
+        <v>0.09243767245877559</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09258922744119186</v>
+        <v>0.09306199324366141</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0428849612425533</v>
+        <v>0.04083453776999994</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05447581102889042</v>
+        <v>0.05263844092715255</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06330214374591538</v>
+        <v>0.06258079270431782</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07473417671430826</v>
+        <v>0.07462212769867338</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.03685543255431679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06419590425342941</v>
+        <v>0.0641959042534294</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06425011358371831</v>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01380026524109084</v>
+        <v>0.01319936780593394</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009898261439646779</v>
+        <v>0.01023564910457546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02047580541434854</v>
+        <v>0.01966987275894396</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0472360662937891</v>
+        <v>0.04771407838138291</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04509083315797292</v>
+        <v>0.04369870027142519</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05309672661974988</v>
+        <v>0.05222105182925035</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1052305975241237</v>
+        <v>0.1004146698776002</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1228176266445102</v>
+        <v>0.1243572543007188</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03096484691199942</v>
+        <v>0.03162326829086303</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03579588613957622</v>
+        <v>0.03599276089182315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06859609764161705</v>
+        <v>0.06905666036066729</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08805757151430758</v>
+        <v>0.08996791519178179</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04875360170720409</v>
+        <v>0.0460445371532878</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04211067081854666</v>
+        <v>0.0415027940763288</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06259367258133222</v>
+        <v>0.05868855668295771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08454419951739933</v>
+        <v>0.08321522899681758</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09244887917843171</v>
+        <v>0.09115969040997522</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1028110330785175</v>
+        <v>0.101109987739223</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1667278740733088</v>
+        <v>0.16591444962098</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1660800101490679</v>
+        <v>0.1685685193307443</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06184363007947094</v>
+        <v>0.06197108911202089</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06650370405468653</v>
+        <v>0.06655367042747708</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1062028250137432</v>
+        <v>0.1078423354372401</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1178243938406251</v>
+        <v>0.1184012988955817</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.1748859101390535</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1661501473032486</v>
+        <v>0.1661501473032485</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07251125152680762</v>
@@ -1369,7 +1369,7 @@
         <v>0.126455474441259</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1265357051659232</v>
+        <v>0.1265357051659233</v>
       </c>
     </row>
     <row r="20">
@@ -1380,40 +1380,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03252462226890992</v>
+        <v>0.03060310349143197</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01667675513993293</v>
+        <v>0.01585223532018985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04880480820988829</v>
+        <v>0.04921714560897443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06388577892901817</v>
+        <v>0.0642456759381165</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0643309225891914</v>
+        <v>0.06297572688385411</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08310049039615509</v>
+        <v>0.08371651895095576</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1384050837260282</v>
+        <v>0.1360281288463518</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1414286951839027</v>
+        <v>0.1410077446864507</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05451373229208807</v>
+        <v>0.05413813143645402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0576767751609614</v>
+        <v>0.05690276966377177</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1030315432172106</v>
+        <v>0.1043448410236534</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1097466445049087</v>
+        <v>0.1103228722512012</v>
       </c>
     </row>
     <row r="21">
@@ -1424,40 +1424,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07847698043465673</v>
+        <v>0.07768456865393195</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06111362570911499</v>
+        <v>0.0614509835231915</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1028775238207619</v>
+        <v>0.1054644211131038</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1106494517331741</v>
+        <v>0.1069506828161524</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1248462630284384</v>
+        <v>0.1235519231556194</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1525327814212043</v>
+        <v>0.1520830877562709</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2226093471769892</v>
+        <v>0.2171227973408715</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1924908631324908</v>
+        <v>0.1901798162742731</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09340004947668627</v>
+        <v>0.09354430993572045</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1004310022435826</v>
+        <v>0.100128432710388</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1539823641963334</v>
+        <v>0.154893731574089</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1443547234703589</v>
+        <v>0.1450416155956152</v>
       </c>
     </row>
     <row r="22">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05001093419034768</v>
+        <v>0.04723185820835134</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02859623560352569</v>
+        <v>0.02712858647057027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05590651072609185</v>
+        <v>0.05755591190733331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1262861780255981</v>
+        <v>0.1272572283514875</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06767504032362963</v>
+        <v>0.07135836529700068</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1521040338702603</v>
+        <v>0.1515241927623349</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1168662418045554</v>
+        <v>0.1157080926799481</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2430021757057386</v>
+        <v>0.242139420324018</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07240414017325594</v>
+        <v>0.07200478895948589</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1102602392949872</v>
+        <v>0.1079355666755223</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1038683634321145</v>
+        <v>0.1047188229957437</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2063597665818938</v>
+        <v>0.2032146730796282</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1241001808687005</v>
+        <v>0.1276214262866466</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08491017482112917</v>
+        <v>0.08365579525771781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1246083015532655</v>
+        <v>0.1241202771476563</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1963834020748447</v>
+        <v>0.197726029493094</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1416932781373931</v>
+        <v>0.1433483985446934</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2294439501184512</v>
+        <v>0.2302442218061392</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.200828829291871</v>
+        <v>0.2027467567780857</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3032471160576117</v>
+        <v>0.3025311778846161</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1206693634070933</v>
+        <v>0.1234284276699229</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1637120083968991</v>
+        <v>0.1615433842510209</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.158357988747401</v>
+        <v>0.1601458599782654</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2500534750703092</v>
+        <v>0.2487990285564191</v>
       </c>
     </row>
     <row r="25">
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0155976375500699</v>
+        <v>0.01542652395770602</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02076918078736823</v>
+        <v>0.02105974645087524</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0446093266404025</v>
+        <v>0.04452955782502468</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05430055052115479</v>
+        <v>0.05448585122677276</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06645476528252289</v>
+        <v>0.06666273048603999</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.09615546920544037</v>
+        <v>0.09641463198344308</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03727061587045739</v>
+        <v>0.03713493409252261</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04620125524850467</v>
+        <v>0.04596183005750792</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07309293661485501</v>
+        <v>0.07321867437972497</v>
       </c>
     </row>
     <row r="27">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02633954213424029</v>
+        <v>0.02628605011142104</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03303403484778396</v>
+        <v>0.03259583594031968</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05950962741388288</v>
+        <v>0.05903809616286451</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07163675623897342</v>
+        <v>0.07128453491620509</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08508730626791236</v>
+        <v>0.08531159529380468</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1129229198503146</v>
+        <v>0.1122552625935198</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04723736166820097</v>
+        <v>0.04796434267501914</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05711860189978623</v>
+        <v>0.05686388005200057</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08364195866866291</v>
+        <v>0.08411068898913487</v>
       </c>
     </row>
     <row r="28">
@@ -2011,28 +2011,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1796</v>
+        <v>1932</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>997</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4587</v>
+        <v>4425</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1917</v>
+        <v>1092</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2883</v>
+        <v>2847</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8172</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="7">
@@ -2044,35 +2044,35 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4105</v>
+        <v>4693</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>19475</v>
+        <v>16722</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11208</v>
+        <v>11168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11863</v>
+        <v>11903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11732</v>
+        <v>10861</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29766</v>
+        <v>27990</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11249</v>
+        <v>10831</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13601</v>
+        <v>13672</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12007</v>
+        <v>11607</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>38384</v>
+        <v>33802</v>
       </c>
     </row>
     <row r="8">
@@ -2175,40 +2175,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1352</v>
+        <v>1378</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2875</v>
+        <v>2969</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2794</v>
+        <v>2784</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2897</v>
+        <v>3060</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6666</v>
+        <v>6930</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5700</v>
+        <v>6085</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4647</v>
+        <v>4595</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6280</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="11">
@@ -2219,40 +2219,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11140</v>
+        <v>11591</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16768</v>
+        <v>16911</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6957</v>
+        <v>6803</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13039</v>
+        <v>13156</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14458</v>
+        <v>15125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13703</v>
+        <v>14099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13146</v>
+        <v>12954</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14676</v>
+        <v>16565</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>21107</v>
+        <v>22347</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23346</v>
+        <v>23399</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15387</v>
+        <v>15184</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23507</v>
+        <v>23493</v>
       </c>
     </row>
     <row r="12">
@@ -2355,40 +2355,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4261</v>
+        <v>4301</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8045</v>
+        <v>7652</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1872</v>
+        <v>1884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8434</v>
+        <v>8047</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8681</v>
+        <v>9378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>22334</v>
+        <v>20708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8673</v>
+        <v>8595</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16793</v>
+        <v>18107</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15810</v>
+        <v>15917</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>35107</v>
+        <v>35617</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12996</v>
+        <v>13045</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>29554</v>
+        <v>30659</v>
       </c>
     </row>
     <row r="15">
@@ -2399,40 +2399,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16075</v>
+        <v>15993</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27171</v>
+        <v>27132</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13074</v>
+        <v>12720</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27369</v>
+        <v>27206</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25157</v>
+        <v>25995</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45167</v>
+        <v>43137</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23580</v>
+        <v>23904</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34030</v>
+        <v>33583</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>35670</v>
+        <v>35940</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>62741</v>
+        <v>62499</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>30852</v>
+        <v>31008</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>56129</v>
+        <v>55252</v>
       </c>
     </row>
     <row r="16">
@@ -2535,40 +2535,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4248</v>
+        <v>4214</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8115</v>
+        <v>7264</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11285</v>
+        <v>11233</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22914</v>
+        <v>22963</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12870</v>
+        <v>13215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23114</v>
+        <v>23202</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33793</v>
+        <v>33921</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>44496</v>
+        <v>45435</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20911</v>
+        <v>21067</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>35384</v>
+        <v>35632</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>49758</v>
+        <v>50406</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>75025</v>
+        <v>75248</v>
       </c>
     </row>
     <row r="19">
@@ -2579,40 +2579,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17812</v>
+        <v>18462</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25939</v>
+        <v>26315</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30217</v>
+        <v>30546</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46303</v>
+        <v>47557</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30668</v>
+        <v>30795</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>45440</v>
+        <v>48903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>59516</v>
+        <v>59999</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>68162</v>
+        <v>68510</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44377</v>
+        <v>42255</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>66879</v>
+        <v>64623</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>81984</v>
+        <v>81050</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>107378</v>
+        <v>107217</v>
       </c>
     </row>
     <row r="20">
@@ -2715,40 +2715,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5337</v>
+        <v>5104</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4240</v>
+        <v>4384</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9786</v>
+        <v>9401</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28736</v>
+        <v>29027</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>18216</v>
+        <v>17654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>23777</v>
+        <v>23385</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>52284</v>
+        <v>49891</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>74518</v>
+        <v>75452</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>24484</v>
+        <v>25004</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31362</v>
+        <v>31535</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>66865</v>
+        <v>67314</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>106998</v>
+        <v>109319</v>
       </c>
     </row>
     <row r="23">
@@ -2759,40 +2759,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18854</v>
+        <v>17806</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18038</v>
+        <v>17777</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29915</v>
+        <v>28048</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>51433</v>
+        <v>50625</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>37348</v>
+        <v>36827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46039</v>
+        <v>45277</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>82839</v>
+        <v>82434</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>100766</v>
+        <v>102276</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>48900</v>
+        <v>49000</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>58267</v>
+        <v>58311</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>103523</v>
+        <v>105121</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>143167</v>
+        <v>143868</v>
       </c>
     </row>
     <row r="24">
@@ -2895,40 +2895,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9516</v>
+        <v>8954</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5133</v>
+        <v>4879</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16317</v>
+        <v>16455</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26007</v>
+        <v>26153</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22061</v>
+        <v>21597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>29339</v>
+        <v>29557</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>52284</v>
+        <v>51386</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>62111</v>
+        <v>61926</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>34644</v>
+        <v>34406</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>38116</v>
+        <v>37604</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>73368</v>
+        <v>74303</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>92873</v>
+        <v>93360</v>
       </c>
     </row>
     <row r="27">
@@ -2939,40 +2939,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22961</v>
+        <v>22729</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18810</v>
+        <v>18914</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>34395</v>
+        <v>35260</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45043</v>
+        <v>43537</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>42814</v>
+        <v>42370</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>53853</v>
+        <v>53694</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>84093</v>
+        <v>82021</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>84535</v>
+        <v>83521</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>59357</v>
+        <v>59449</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>66370</v>
+        <v>66170</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>109650</v>
+        <v>110299</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>122160</v>
+        <v>122741</v>
       </c>
     </row>
     <row r="28">
@@ -3075,40 +3075,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10496</v>
+        <v>9913</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7115</v>
+        <v>6750</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14368</v>
+        <v>14792</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>39111</v>
+        <v>39412</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22597</v>
+        <v>23827</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>58827</v>
+        <v>58602</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>46766</v>
+        <v>46303</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>112529</v>
+        <v>112130</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>39373</v>
+        <v>39156</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>70078</v>
+        <v>68601</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>68259</v>
+        <v>68818</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>159471</v>
+        <v>157041</v>
       </c>
     </row>
     <row r="31">
@@ -3119,40 +3119,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>26047</v>
+        <v>26786</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>21127</v>
+        <v>20815</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>32024</v>
+        <v>31899</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>60821</v>
+        <v>61236</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>47313</v>
+        <v>47865</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>88738</v>
+        <v>89048</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>80365</v>
+        <v>81133</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>140427</v>
+        <v>140096</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>65619</v>
+        <v>67119</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>104051</v>
+        <v>102672</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>104068</v>
+        <v>105243</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>193237</v>
+        <v>192267</v>
       </c>
     </row>
     <row r="32">
@@ -3255,40 +3255,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>53312</v>
+        <v>52727</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>70498</v>
+        <v>71484</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>157528</v>
+        <v>157246</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>192504</v>
+        <v>193161</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>235552</v>
+        <v>236289</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>358746</v>
+        <v>359712</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>259519</v>
+        <v>258574</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>320586</v>
+        <v>318924</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>530813</v>
+        <v>531726</v>
       </c>
     </row>
     <row r="35">
@@ -3299,40 +3299,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>90027</v>
+        <v>89844</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>112129</v>
+        <v>110642</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>210145</v>
+        <v>208480</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>253964</v>
+        <v>252715</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>301596</v>
+        <v>302391</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>421303</v>
+        <v>418812</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>328918</v>
+        <v>333981</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>396340</v>
+        <v>394572</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>607422</v>
+        <v>610826</v>
       </c>
     </row>
     <row r="36">
